--- a/Sample_metadata_submission/Sample_submission_sheet.xlsx
+++ b/Sample_metadata_submission/Sample_submission_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v1.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v2.0.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{761950E1-BF38-4EA9-BB1D-100E098EB6FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4F2620C1-2ECA-46FE-AE45-0F44E44B52BA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{12276A11-94FB-4825-948B-6F6A81539FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A06C05C-0159-417D-9808-89710E23FED4}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="7335" windowWidth="24600" windowHeight="12675" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
+    <workbookView xWindow="-31380" yWindow="-330" windowWidth="29235" windowHeight="14910" firstSheet="4" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Pelagic Water" sheetId="5" r:id="rId5"/>
     <sheet name="Host" sheetId="6" r:id="rId6"/>
     <sheet name="Controlled Vocab" sheetId="7" r:id="rId7"/>
-    <sheet name="README_v1.0.0" sheetId="8" r:id="rId8"/>
+    <sheet name="README_v2.0.0" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="932">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -4903,6 +4903,12 @@
   </si>
   <si>
     <t>Collection_permit</t>
+  </si>
+  <si>
+    <t>Hyperspectral_analysis</t>
+  </si>
+  <si>
+    <t>Hyperspectral_analysis_meth</t>
   </si>
 </sst>
 </file>
@@ -5539,7 +5545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49B2F2E-C873-4901-BCD7-6687D32B8F05}">
-  <dimension ref="A1:HL1"/>
+  <dimension ref="A1:HN1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5547,10 +5553,11 @@
   <cols>
     <col min="2" max="2" width="13.140625" style="13"/>
     <col min="11" max="11" width="13.140625" style="13"/>
-    <col min="200" max="200" width="13.140625" style="13"/>
+    <col min="115" max="116" width="13.140625" style="13"/>
+    <col min="202" max="202" width="13.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:220" s="6" customFormat="1" ht="312.75">
+    <row r="1" spans="1:222" s="6" customFormat="1" ht="312.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5893,322 +5900,328 @@
       <c r="DJ1" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="DK1" s="6" t="s">
+      <c r="DK1" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="DM1" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="DL1" s="6" t="s">
+      <c r="DN1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="DM1" s="6" t="s">
+      <c r="DO1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="DN1" s="6" t="s">
+      <c r="DP1" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="DO1" s="6" t="s">
+      <c r="DQ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="DP1" s="6" t="s">
+      <c r="DR1" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="DQ1" s="6" t="s">
+      <c r="DS1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="DR1" s="6" t="s">
+      <c r="DT1" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="DS1" s="6" t="s">
+      <c r="DU1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="DT1" s="6" t="s">
+      <c r="DV1" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="DU1" s="6" t="s">
+      <c r="DW1" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="DV1" s="6" t="s">
+      <c r="DX1" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="DW1" s="6" t="s">
+      <c r="DY1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="DX1" s="6" t="s">
+      <c r="DZ1" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="DY1" s="6" t="s">
+      <c r="EA1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="DZ1" s="6" t="s">
+      <c r="EB1" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="EA1" s="6" t="s">
+      <c r="EC1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="EB1" s="6" t="s">
+      <c r="ED1" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="EC1" s="6" t="s">
+      <c r="EE1" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="ED1" s="6" t="s">
+      <c r="EF1" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="EE1" s="6" t="s">
+      <c r="EG1" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="EF1" s="6" t="s">
+      <c r="EH1" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EI1" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="EH1" s="6" t="s">
+      <c r="EJ1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EK1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="EJ1" s="6" t="s">
+      <c r="EL1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="EK1" s="6" t="s">
+      <c r="EM1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="EL1" s="6" t="s">
+      <c r="EN1" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="EO1" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="EN1" s="6" t="s">
+      <c r="EP1" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="EO1" s="6" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="EP1" s="6" t="s">
+      <c r="ER1" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="EQ1" s="6" t="s">
+      <c r="ES1" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="ET1" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="ES1" s="6" t="s">
+      <c r="EU1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="EV1" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="EU1" s="6" t="s">
+      <c r="EW1" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="EX1" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="EW1" s="6" t="s">
+      <c r="EY1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="FA1" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="FA1" s="6" t="s">
+      <c r="FC1" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="FB1" s="6" t="s">
+      <c r="FD1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="FC1" s="6" t="s">
+      <c r="FE1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="FD1" s="6" t="s">
+      <c r="FF1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="FE1" s="6" t="s">
+      <c r="FG1" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="FF1" s="6" t="s">
+      <c r="FH1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="FG1" s="6" t="s">
+      <c r="FI1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="FH1" s="6" t="s">
+      <c r="FJ1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="FI1" s="6" t="s">
+      <c r="FK1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="FJ1" s="6" t="s">
+      <c r="FL1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="FK1" s="6" t="s">
+      <c r="FM1" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="FL1" s="6" t="s">
+      <c r="FN1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="FM1" s="6" t="s">
+      <c r="FO1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="FN1" s="6" t="s">
+      <c r="FP1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="FO1" s="6" t="s">
+      <c r="FQ1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="FP1" s="6" t="s">
+      <c r="FR1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="FQ1" s="6" t="s">
+      <c r="FS1" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="FR1" s="6" t="s">
+      <c r="FT1" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="FS1" s="6" t="s">
+      <c r="FU1" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="FT1" s="6" t="s">
+      <c r="FV1" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="FU1" s="6" t="s">
+      <c r="FW1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="FV1" s="6" t="s">
+      <c r="FX1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="FW1" s="6" t="s">
+      <c r="FY1" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="FX1" s="6" t="s">
+      <c r="FZ1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="FY1" s="6" t="s">
+      <c r="GA1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="FZ1" s="6" t="s">
+      <c r="GB1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="GA1" s="6" t="s">
+      <c r="GC1" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="GB1" s="6" t="s">
+      <c r="GD1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="GC1" s="6" t="s">
+      <c r="GE1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="GD1" s="6" t="s">
+      <c r="GF1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="GE1" s="6" t="s">
+      <c r="GG1" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="GF1" s="6" t="s">
+      <c r="GH1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="GG1" s="6" t="s">
+      <c r="GI1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="GH1" s="6" t="s">
+      <c r="GJ1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="GI1" s="6" t="s">
+      <c r="GK1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="GJ1" s="6" t="s">
+      <c r="GL1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="GK1" s="6" t="s">
+      <c r="GM1" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="GL1" s="6" t="s">
+      <c r="GN1" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="GM1" s="6" t="s">
+      <c r="GO1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="GN1" s="6" t="s">
+      <c r="GP1" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="GO1" s="6" t="s">
+      <c r="GQ1" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="GP1" s="6" t="s">
+      <c r="GR1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="GQ1" s="6" t="s">
+      <c r="GS1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="GR1" s="6" t="s">
+      <c r="GT1" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="GS1" s="6" t="s">
+      <c r="GU1" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="GT1" s="6" t="s">
+      <c r="GV1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="GU1" s="6" t="s">
+      <c r="GW1" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="GV1" s="6" t="s">
+      <c r="GX1" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="GW1" s="6" t="s">
+      <c r="GY1" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="GX1" s="6" t="s">
+      <c r="GZ1" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="GY1" s="6" t="s">
+      <c r="HA1" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="GZ1" s="6" t="s">
+      <c r="HB1" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="HA1" s="6" t="s">
+      <c r="HC1" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="HB1" s="6" t="s">
+      <c r="HD1" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="HC1" s="6" t="s">
+      <c r="HE1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="HD1" s="6" t="s">
+      <c r="HF1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="HE1" s="6" t="s">
+      <c r="HG1" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="HF1" s="6" t="s">
+      <c r="HH1" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="HG1" s="6" t="s">
+      <c r="HI1" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="HH1" s="6" t="s">
+      <c r="HJ1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="HI1" s="6" t="s">
+      <c r="HK1" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="HJ1" s="6" t="s">
+      <c r="HL1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="HK1" s="6" t="s">
+      <c r="HM1" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="HL1" s="6" t="s">
+      <c r="HN1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6220,7 +6233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DE3745-0D30-4839-B23F-930B4ED41E8C}">
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6230,7 +6243,7 @@
     <col min="12" max="12" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:67" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6352,82 +6365,88 @@
         <v>65</v>
       </c>
       <c r="AO1" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="2" customFormat="1">
+    <row r="2" spans="1:67" s="2" customFormat="1">
       <c r="B2" s="13"/>
       <c r="L2" s="13"/>
     </row>
@@ -6438,7 +6457,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62CB08B-B068-40E7-9DBE-43B0E1BB0355}">
-  <dimension ref="A1:DD1"/>
+  <dimension ref="A1:DF1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6448,7 +6467,7 @@
     <col min="11" max="11" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:110" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6597,188 +6616,194 @@
         <v>67</v>
       </c>
       <c r="AX1" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>927</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BB1">
+  <conditionalFormatting sqref="BD1">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV1:DC1 BP1 AH1:AI1 CL1:CS1 V1 AA1:AB1 CF1:CH1 BB1 AZ1">
+  <conditionalFormatting sqref="CX1:DE1 BR1 AH1:AI1 CN1:CU1 V1 AA1:AB1 CH1:CJ1 BD1 BB1">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6788,7 +6813,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F0001-D48A-4857-9E2D-BD435BB0F0C1}">
-  <dimension ref="A1:FO1"/>
+  <dimension ref="A1:FQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6800,7 +6825,7 @@
     <col min="167" max="167" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:171" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:173" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7108,210 +7133,216 @@
         <v>117</v>
       </c>
       <c r="CY1" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="DA1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FE1" s="4" t="s">
+      <c r="FG1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="FF1" s="4" t="s">
+      <c r="FH1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="FG1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FK1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FL1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="FK1" s="4" t="s">
+      <c r="FM1" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="FL1" s="4" t="s">
+      <c r="FN1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="FM1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="FN1" s="4" t="s">
+      <c r="FP1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="FO1" s="4" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7323,7 +7354,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227E32B-D456-4E9A-8E84-D14AE0D89898}">
-  <dimension ref="A1:FU1"/>
+  <dimension ref="A1:FW1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7335,7 +7366,7 @@
     <col min="173" max="173" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:179" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7655,216 +7686,222 @@
         <v>117</v>
       </c>
       <c r="DC1" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="DE1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="FE1" s="4" t="s">
+      <c r="FG1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="FF1" s="4" t="s">
+      <c r="FH1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="FG1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FK1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FL1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FK1" s="4" t="s">
+      <c r="FM1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="FL1" s="4" t="s">
+      <c r="FN1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="FM1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="FN1" s="4" t="s">
+      <c r="FP1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="FO1" s="4" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="FP1" s="4" t="s">
+      <c r="FR1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="FQ1" s="4" t="s">
+      <c r="FS1" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="FR1" s="4" t="s">
+      <c r="FT1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="FS1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="FT1" s="4" t="s">
+      <c r="FV1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="FU1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7875,7 +7912,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA9DA0-524F-474D-A8A0-C361BB6103AA}">
-  <dimension ref="A1:CQ2"/>
+  <dimension ref="A1:CS2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7886,7 +7923,7 @@
     <col min="54" max="54" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="4" customFormat="1" ht="315">
+    <row r="1" spans="1:97" s="4" customFormat="1" ht="315">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8062,118 +8099,124 @@
         <v>750</v>
       </c>
       <c r="BG1" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="BI1" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:97">
       <c r="BB2"/>
     </row>
   </sheetData>

--- a/Sample_metadata_submission/Sample_submission_sheet.xlsx
+++ b/Sample_metadata_submission/Sample_submission_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v2.0.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{12276A11-94FB-4825-948B-6F6A81539FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A06C05C-0159-417D-9808-89710E23FED4}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{12276A11-94FB-4825-948B-6F6A81539FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4586E6-3A16-4A3D-A800-315074433CCB}"/>
   <bookViews>
-    <workbookView xWindow="-31380" yWindow="-330" windowWidth="29235" windowHeight="14910" firstSheet="4" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
+    <workbookView xWindow="-35280" yWindow="-2040" windowWidth="19200" windowHeight="14910" firstSheet="3" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="933">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -4908,7 +4908,10 @@
     <t>Hyperspectral_analysis</t>
   </si>
   <si>
-    <t>Hyperspectral_analysis_meth</t>
+    <t>Hyperspectral_analysis_method</t>
+  </si>
+  <si>
+    <t>hyperspectral_analysis_method</t>
   </si>
 </sst>
 </file>
@@ -5188,22 +5191,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5904,7 +5907,7 @@
         <v>930</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="DM1" s="6" t="s">
         <v>846</v>
@@ -6368,7 +6371,7 @@
         <v>930</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AQ1" s="4" t="s">
         <v>164</v>
@@ -6619,7 +6622,7 @@
         <v>930</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AZ1" s="4" t="s">
         <v>194</v>
@@ -8257,79 +8260,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>866</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>868</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>869</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>870</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>871</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="33" t="s">
         <v>873</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>877</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>879</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="33" t="s">
         <v>881</v>
       </c>
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="29" t="s">
         <v>882</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>883</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18">
@@ -10530,22 +10533,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="controlled_vocab_2 (Click for field definition link) " xr:uid="{4CF19C1E-AD51-42F2-92F5-84E00CD08136}"/>

--- a/Sample_metadata_submission/Sample_submission_sheet.xlsx
+++ b/Sample_metadata_submission/Sample_submission_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v2.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v3.0.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{12276A11-94FB-4825-948B-6F6A81539FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4586E6-3A16-4A3D-A800-315074433CCB}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{5894C753-3ACE-4B56-A287-D56F3699727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9443284-E767-4CCC-BA5E-39ED449D8793}"/>
   <bookViews>
-    <workbookView xWindow="-35280" yWindow="-2040" windowWidth="19200" windowHeight="14910" firstSheet="3" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
+    <workbookView xWindow="-36030" yWindow="2265" windowWidth="28770" windowHeight="12690" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Pelagic Water" sheetId="5" r:id="rId5"/>
     <sheet name="Host" sheetId="6" r:id="rId6"/>
     <sheet name="Controlled Vocab" sheetId="7" r:id="rId7"/>
-    <sheet name="README_v2.0.0" sheetId="8" r:id="rId8"/>
+    <sheet name="README_v3.0.0" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="952">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -436,9 +436,6 @@
     <t>Temperature_method</t>
   </si>
   <si>
-    <t>Conductivity_method(dS/m)</t>
-  </si>
-  <si>
     <t>Fire</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
     <t>bulk_density_method</t>
   </si>
   <si>
-    <t>Conductivity_(dS/m)</t>
-  </si>
-  <si>
     <t>Elevation_(m)</t>
   </si>
   <si>
@@ -3704,12 +3698,6 @@
   </si>
   <si>
     <t>Sample_volume_notes_(controlled_vocab_11)</t>
-  </si>
-  <si>
-    <t>Carbonate/bicarbonate_(mg/L)</t>
-  </si>
-  <si>
-    <t>Carbonate/bicarbonate_method</t>
   </si>
   <si>
     <t>Inorganic_fraction_(mg/L)</t>
@@ -4797,9 +4785,6 @@
     <t>Sediment_grain_size_(%_fines)</t>
   </si>
   <si>
-    <t>3) Saving your file:</t>
-  </si>
-  <si>
     <t>2) Data entry:</t>
   </si>
   <si>
@@ -4815,25 +4800,10 @@
     <t xml:space="preserve">2a) Do not modify existing column names. </t>
   </si>
   <si>
-    <t>2e) Unless specified in the column header or controlled vocab, use semicolons to separate values in fields containing free text. Do not use commas to separate values.</t>
-  </si>
-  <si>
     <t>2g) Ensure latitude and longitude are in decimal degrees.</t>
   </si>
   <si>
-    <t>3c) At a minimum, file names should contain the sample submitter name, date (e.g., YYYYMMDD, DD_MM_YYYY etc.,) and sample type (e.g., soil, sediment, freshwater, coastal, pelagic, host), additional user specific codes are acceptable as long as they do not contain non conforming characters outlined in 3b. Example file name formats include:  JDoe_soil_2021_01_01.xlsx or am1237_jane_doe_01012021_soil.xlsx.</t>
-  </si>
-  <si>
-    <t>3a) Save your file as a *.xlsx sheet.</t>
-  </si>
-  <si>
-    <t>3b) File names must NOT contain whitespace or non alpha numeric reserved characters (e.g., #-^*@!-(,')\~/$|":&lt;&gt;) as text delimiters. An underscore character _ is an acceptable delimiter (see below for examples).</t>
-  </si>
-  <si>
     <t>2b) Do not add additional/new columns, if you have additional data not represented in the database and you feel it should be included, please contact us to discuss. Deleting unused columns is acceptable.</t>
-  </si>
-  <si>
-    <t>3e) Errors on metadata sheets. We will contact you if data does not conform to AM database standards to discuss corrective action prior to ingesting the data into the AM database. If you notice any errors following data submission, please contact us to discuss the error(s) and corrective action options.</t>
   </si>
   <si>
     <t>2k) Data known to be missing or verified as unobtainable should be flagged with -9999</t>
@@ -4884,9 +4854,6 @@
     <t>2i) Enter controlled vocab as it appears in the appropriate column in the Controlled Vocab sheet.</t>
   </si>
   <si>
-    <t>3d) Files containing updates to previously submitted data must be terminated in &lt;filename&gt;_UPDATE.xlsx (e.g., JDoe_soil_2021_01_01_UPDATE.xlsx). You may need to submit an update file if initial files containing sample_id , geo-location and controlled vocab information have been submitted before phys/chemical analysis data has been returned. Update files may contain only the missing analytical data, analysis method number and associated sample ID or the missing analytical data and associated method number appended to the data contained on the original ingest sheet. Prepare separate files for update files and files containing new data.</t>
-  </si>
-  <si>
     <t>Synonyms</t>
   </si>
   <si>
@@ -4912,13 +4879,108 @@
   </si>
   <si>
     <t>hyperspectral_analysis_method</t>
+  </si>
+  <si>
+    <t>Bicarbonate_(mg/L)</t>
+  </si>
+  <si>
+    <t>Bicarbonate_method</t>
+  </si>
+  <si>
+    <t>Carbonate_(mg/L)</t>
+  </si>
+  <si>
+    <t>Carbonate_method</t>
+  </si>
+  <si>
+    <t>Picoeukaryotes_method</t>
+  </si>
+  <si>
+    <t>Prochlorococcus_(cells_per_ml)</t>
+  </si>
+  <si>
+    <t>Picoeukaryotes_(cells_per_ml)</t>
+  </si>
+  <si>
+    <t>Prochlorococcus_method</t>
+  </si>
+  <si>
+    <t>Synechococcus_(cells_per_ml)</t>
+  </si>
+  <si>
+    <t>Synechococcus_method</t>
+  </si>
+  <si>
+    <t>Ammonium_nitrogen_(umol/l N)
+*CSBP conversion: (CSBP_value*1000)/14.006720</t>
+  </si>
+  <si>
+    <t>Ammonium_nitrogen_(umol/l N)_method</t>
+  </si>
+  <si>
+    <t>Nitrate_nitrogen_(umol/l N)
+*CSBP conversion: (CSBP_value*1000)/14.006720</t>
+  </si>
+  <si>
+    <t>Nitrate_nitrogen_(umol/l N)_method</t>
+  </si>
+  <si>
+    <t>Conductivity_(S/m)
+*CSBP conversion: CSBP_value*10</t>
+  </si>
+  <si>
+    <t>Conductivity_(S/m)_method</t>
+  </si>
+  <si>
+    <t>3) CSBP analysis sheets</t>
+  </si>
+  <si>
+    <t>4) Saving your file:</t>
+  </si>
+  <si>
+    <t>4a) Save your file as a *.xlsx sheet.</t>
+  </si>
+  <si>
+    <t>4b) File names must NOT contain whitespace or non alpha numeric reserved characters (e.g., #-^*@!-(,')\~/$|":&lt;&gt;) as text delimiters. An underscore character _ is an acceptable delimiter (see below for examples).</t>
+  </si>
+  <si>
+    <t>4d) Files containing updates to previously submitted data must be terminated in &lt;filename&gt;_UPDATE.xlsx (e.g., JDoe_soil_2021_01_01_UPDATE.xlsx). You may need to submit an update file if initial files containing sample_id , geo-location and controlled vocab information have been submitted before phys/chemical analysis data has been returned. Update files may contain only the missing analytical data, analysis method number and associated sample ID or the missing analytical data and associated method number appended to the data contained on the original ingest sheet. Prepare separate files for update files and files containing new data.</t>
+  </si>
+  <si>
+    <t>4e) Errors on metadata sheets. We will contact you if data does not conform to AM database standards to discuss corrective action prior to ingesting the data into the AM database. If you notice any errors following data submission, please contact us to discuss the error(s) and corrective action options.</t>
+  </si>
+  <si>
+    <t>3c) All non-AM samples are removed from the sheet.</t>
+  </si>
+  <si>
+    <t>The AM will now accept CSBP analysis sheets for the recommended AM testing schedule for soil and water under the following conditions:</t>
+  </si>
+  <si>
+    <t>2e) Unless specified in the column header or controlled vocab, use semicolons or pipes '|' to separate values in fields containing free text. Preferred separators are highlighted in the database schema documentation. Do not use commas to separate values.</t>
+  </si>
+  <si>
+    <t>4c) At a minimum, file names should contain the sample submitter name, date (e.g., YYYYMMDD, DD_MM_YYYY etc.,) and sample type (e.g., soil, sediment, freshwater, coastal, pelagic, host), additional user specific codes are acceptable as long as they do not contain non conforming characters outlined in 4b. Example file name formats include:  JDoe_soil_2021_01_01.xlsx or am1237_jane_doe_01012021_soil.xlsx.</t>
+  </si>
+  <si>
+    <t>3b) The CSBP sheet is not modified from its original formatting. Do not delete or rename columns.</t>
+  </si>
+  <si>
+    <t>2L) If adding values from CSBP analysis sheets some values may need conversion. In these cases the conversion factor is noted in the column heading.</t>
+  </si>
+  <si>
+    <t>3a) An  AM submission sheet is first completed and submitted as in 2) Data entry above containing site specific sample information (e.g., Date, Time, latitude, longitude, depth, etc) and controlled vocab</t>
+  </si>
+  <si>
+    <t>3d) If you wish to convert your own CSBP sheets for submission, a python script to convert the CSBP sheet into AM format is available at:
+https://github.com/AusMicrobiome/misc_tools/blob/master/convert_CSBP_to_AM.py
+The output filename from script will mirror the input CSBP filename but will terminate in the suffix `AM_&lt;SAMPLE_TYPE&gt;_format_UPDATE.xlsx`. Prior to submission ensure the filename contains submitter identifiable information as in 4d) below and retains the suffix. The output from this script can be submitted directly to the AM.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5067,6 +5129,13 @@
       <color indexed="8"/>
       <name val="Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5116,7 +5185,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5190,6 +5259,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5565,25 +5640,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -5592,43 +5667,43 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>709</v>
-      </c>
       <c r="W1" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>3</v>
@@ -5637,595 +5712,595 @@
         <v>4</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AA1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="AS1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AF1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="AL1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW1" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA1" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="AP1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="BD1" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="BY1" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AT1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="CP1" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="CQ1" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="CR1" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="CS1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT1" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="CU1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV1" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="CW1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CX1" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="CY1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ1" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="DA1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="DC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="DD1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="DE1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="DF1" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="DG1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="DH1" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="DI1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="DJ1" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="DM1" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="DN1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="DO1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="DP1" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="DQ1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DR1" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="DS1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="DT1" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="DU1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="DV1" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="DW1" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="DX1" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="DY1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="DZ1" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="EA1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EB1" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="EC1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="ED1" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="EE1" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="EF1" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="EG1" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="EH1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="EI1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="EJ1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="EK1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="EL1" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="EM1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="EN1" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="EO1" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="EP1" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="EQ1" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="ER1" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="ES1" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="ET1" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="EU1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="EV1" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="EW1" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="EX1" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="EY1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="EZ1" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="FA1" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="FB1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="FC1" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="FD1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="FE1" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="FF1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="FG1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="FH1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="FI1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="FJ1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="FK1" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="FL1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="FM1" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="FN1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="FO1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="FP1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ1" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="FR1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="FS1" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="FT1" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="FU1" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="FV1" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="FW1" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="FX1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="FY1" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="FZ1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="CP1" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="CQ1" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="CR1" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="CS1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="CT1" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="CU1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV1" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="CW1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CX1" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="CY1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="CZ1" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="DA1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="DB1" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="DC1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="DD1" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="DE1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="DF1" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="DG1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="DH1" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="DI1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="DJ1" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="DM1" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="DN1" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="DO1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DP1" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="DQ1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="DR1" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="DS1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="DT1" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="DU1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="DV1" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="DW1" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="DX1" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="DY1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ1" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="EA1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="EB1" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="EC1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="ED1" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="EE1" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="EF1" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="EG1" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="EH1" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="EI1" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="EJ1" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="EK1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="EL1" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="EM1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="EN1" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="EO1" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="EP1" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="EQ1" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="ER1" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="ES1" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="ET1" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="EU1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="EV1" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="EW1" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="EX1" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="EY1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="EZ1" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="FA1" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="FB1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="FC1" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="FD1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="FE1" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="FF1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="FG1" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="FH1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="FI1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="FJ1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="FK1" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="FL1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="FM1" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="FN1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="FO1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="FP1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="FQ1" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="FR1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="FS1" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="FT1" s="6" t="s">
+      <c r="GA1" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="GB1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="GC1" s="6" t="s">
         <v>829</v>
-      </c>
-      <c r="FU1" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="FV1" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="FW1" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="FX1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="FY1" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="FZ1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="GA1" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="GB1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="GC1" s="6" t="s">
-        <v>833</v>
       </c>
       <c r="GD1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="GE1" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="GF1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="GG1" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="GH1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="GI1" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="GJ1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="GG1" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="GH1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="GI1" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="GJ1" s="6" t="s">
+      <c r="GK1" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="GL1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="GK1" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="GL1" s="6" t="s">
+      <c r="GM1" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="GN1" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="GO1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="GM1" s="6" t="s">
+      <c r="GP1" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="GQ1" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="GR1" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="GS1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="GT1" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="GU1" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="GV1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="GW1" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="GX1" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="GN1" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="GO1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="GP1" s="6" t="s">
+      <c r="GY1" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="GQ1" s="6" t="s">
+      <c r="GZ1" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="HA1" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="GR1" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="GS1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="GT1" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="GU1" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="GV1" s="6" t="s">
+      <c r="HB1" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="HC1" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="HD1" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="HE1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="HF1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="HG1" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="HH1" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="HI1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="HJ1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="GW1" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="GX1" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="GY1" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="GZ1" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="HA1" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="HB1" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="HC1" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="HD1" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="HE1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="HF1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="HG1" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="HH1" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="HI1" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="HJ1" s="6" t="s">
+      <c r="HK1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="HL1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="HK1" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="HL1" s="6" t="s">
+      <c r="HM1" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="HN1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="HM1" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="HN1" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6251,28 +6326,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
@@ -6281,43 +6356,43 @@
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="X1" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
@@ -6326,127 +6401,127 @@
         <v>4</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AF1" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AH1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AJ1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="BE1" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BF1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BI1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="BO1" s="4" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="2" customFormat="1">
@@ -6460,7 +6535,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62CB08B-B068-40E7-9DBE-43B0E1BB0355}">
-  <dimension ref="A1:DF1"/>
+  <dimension ref="A1:DJ1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6468,32 +6543,33 @@
   <cols>
     <col min="2" max="2" width="11.5703125" style="13"/>
     <col min="11" max="11" width="11.5703125" style="13"/>
+    <col min="34" max="37" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:114" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -6502,49 +6578,49 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>3</v>
@@ -6553,226 +6629,226 @@
         <v>4</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AG1" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>148</v>
+        <v>379</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>932</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>149</v>
+        <v>933</v>
       </c>
       <c r="AJ1" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>936</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="CF1" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AO1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CP1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AW1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="CT1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="BX1" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="CP1" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="CR1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CW1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CU1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CV1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CW1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="CX1" s="4" t="s">
         <v>171</v>
@@ -6781,32 +6857,44 @@
         <v>172</v>
       </c>
       <c r="CZ1" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="DE1" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>927</v>
+        <v>177</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BD1">
+  <conditionalFormatting sqref="BH1">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX1:DE1 BR1 AH1:AI1 CN1:CU1 V1 AA1:AB1 CH1:CJ1 BD1 BB1">
+  <conditionalFormatting sqref="DB1:DI1 BV1 AL1:AM1 CR1:CY1 V1 AA1:AB1 CL1:CN1 BH1 BF1">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6816,51 +6904,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F0001-D48A-4857-9E2D-BD435BB0F0C1}">
-  <dimension ref="A1:FQ1"/>
+  <dimension ref="A1:FW1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" style="13"/>
     <col min="8" max="9" width="11.5703125" style="13"/>
     <col min="14" max="14" width="11.5703125" style="13"/>
-    <col min="167" max="167" width="11.5703125" style="13"/>
+    <col min="141" max="142" width="11.5703125" style="13"/>
+    <col min="147" max="148" width="11.5703125" style="13"/>
+    <col min="161" max="162" width="11.5703125" style="13"/>
+    <col min="173" max="173" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:179" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -6869,49 +6960,49 @@
         <v>2</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="Z1" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>3</v>
@@ -6920,433 +7011,451 @@
         <v>4</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AK1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AN1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="BI1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK1" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="EL1" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="EQ1" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="ER1" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AQ1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="CP1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CR1" s="4" t="s">
+      <c r="FE1" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="FF1" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="FG1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="FH1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="FI1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="FJ1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FK1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FL1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FM1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="FN1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="CS1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="CU1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CV1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CW1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="CX1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY1" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="CZ1" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="DA1" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="DB1" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="DC1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DE1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="DF1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DG1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="DH1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="DN1" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="DO1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="DP1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="DR1" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="DS1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="DT1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="FP1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DU1" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="DV1" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="DW1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="DX1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="DY1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="DZ1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="EA1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EB1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="EC1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="ED1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="EE1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="EF1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="EG1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="EH1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="EI1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="EK1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="EL1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="EM1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="EN1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="EO1" s="4" t="s">
+      <c r="FQ1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="FR1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="FS1" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="FT1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="EP1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="FV1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="ER1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="ES1" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="ET1" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EU1" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="EV1" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="EW1" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="EX1" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="EY1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="EZ1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="FA1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="FB1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="FC1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="FD1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FE1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FF1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FG1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="FH1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="FI1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="FK1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="FL1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="FM1" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="FN1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="FO1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="FP1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="FQ1" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7357,7 +7466,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227E32B-D456-4E9A-8E84-D14AE0D89898}">
-  <dimension ref="A1:FW1"/>
+  <dimension ref="A1:GC1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7366,54 +7475,57 @@
     <col min="2" max="2" width="11.5703125" style="13"/>
     <col min="10" max="11" width="11.5703125" style="13"/>
     <col min="18" max="18" width="11.5703125" style="13"/>
-    <col min="173" max="173" width="11.5703125" style="13"/>
+    <col min="147" max="148" width="11.5703125" style="13"/>
+    <col min="153" max="154" width="11.5703125" style="13"/>
+    <col min="167" max="168" width="11.5703125" style="13"/>
+    <col min="179" max="179" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:179" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:185" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>1</v>
@@ -7422,49 +7534,49 @@
         <v>2</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="AD1" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AG1" s="4" t="s">
         <v>3</v>
@@ -7473,439 +7585,457 @@
         <v>4</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AJ1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AK1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AO1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AP1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AR1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EQ1" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="ER1" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="EW1" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="EX1" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="FD1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="FE1" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="FF1" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="FG1" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="FH1" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="FI1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="FJ1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AU1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="CP1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CR1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CS1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CU1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CV1" s="4" t="s">
+      <c r="FK1" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="FL1" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="FM1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="FN1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="FO1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="FP1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FQ1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FS1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="CW1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="CX1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="CY1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CZ1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DA1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="DB1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DC1" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="DE1" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="DF1" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="DG1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="DH1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="DN1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO1" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="DP1" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="DR1" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="DS1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="DT1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="DV1" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="DW1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="DX1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="FV1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DY1" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="DZ1" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="EA1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="EB1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="EC1" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="ED1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="EE1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="EF1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="EG1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EH1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="EI1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="EK1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="EL1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="EM1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="EN1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="EO1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="EP1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="EQ1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="ER1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="ES1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="ET1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="EU1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="FX1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="FY1" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="FZ1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="EV1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="EW1" s="4" t="s">
+      <c r="GA1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="GB1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="EX1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="EY1" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EZ1" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="FA1" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="FB1" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="FC1" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="FD1" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="FE1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="FF1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="FG1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="FH1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="FI1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="FJ1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FK1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FL1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FM1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="FN1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="FO1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FP1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="FQ1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="FR1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="FS1" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="FT1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="FU1" s="4" t="s">
+      <c r="GC1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="FV1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="FW1" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7931,28 +8061,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
@@ -7961,43 +8091,43 @@
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="X1" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
@@ -8006,217 +8136,217 @@
         <v>4</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AG1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BX1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="BM1" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="BR1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="CB1" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="BS1" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="BT1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="BU1" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="CE1" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="BW1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="CA1" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="CL1" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="CD1" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="CO1" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="CG1" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>765</v>
-      </c>
       <c r="CP1" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CQ1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="CR1" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="CS1" s="4" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:97">
@@ -8260,382 +8390,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>868</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>870</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="K1" s="35" t="s">
         <v>871</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="33" t="s">
+      <c r="M1" s="35" t="s">
         <v>873</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="N1" s="35" t="s">
         <v>874</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>875</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>876</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="Q1" s="35" t="s">
         <v>877</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="29" t="s">
         <v>878</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>879</v>
       </c>
-      <c r="P1" s="33" t="s">
-        <v>880</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="R1" s="27"/>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="29" t="s">
-        <v>882</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>883</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
       <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="J3" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>885</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="M3" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="N3" s="30" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>883</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>887</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="K4" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="L4" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>270</v>
-      </c>
       <c r="M4" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="13"/>
       <c r="B5" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>889</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="L5" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>276</v>
-      </c>
       <c r="M5" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="13"/>
       <c r="B6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="E6" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="J6" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>282</v>
-      </c>
       <c r="M6" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="14"/>
       <c r="B7" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="J7" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>892</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>289</v>
-      </c>
       <c r="M7" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="13"/>
       <c r="B8" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="J8" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="L8" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>295</v>
-      </c>
       <c r="M8" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -8644,40 +8774,40 @@
     <row r="9" spans="1:18">
       <c r="A9" s="13"/>
       <c r="B9" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>894</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8686,34 +8816,34 @@
     <row r="10" spans="1:18">
       <c r="A10" s="13"/>
       <c r="B10" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="17" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
@@ -8722,7 +8852,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="13"/>
       <c r="B11" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="13"/>
@@ -8731,21 +8861,21 @@
       <c r="G11" s="13"/>
       <c r="H11" s="18"/>
       <c r="I11" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -8754,7 +8884,7 @@
     <row r="12" spans="1:18">
       <c r="A12" s="13"/>
       <c r="B12" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -8762,24 +8892,24 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -8788,7 +8918,7 @@
     <row r="13" spans="1:18">
       <c r="A13" s="13"/>
       <c r="B13" s="21" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8796,24 +8926,24 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -8822,7 +8952,7 @@
     <row r="14" spans="1:18">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -8830,24 +8960,24 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -8862,24 +8992,24 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -8894,24 +9024,24 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -8925,22 +9055,22 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="21" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -8952,19 +9082,19 @@
       <c r="G18" s="13"/>
       <c r="H18" s="18"/>
       <c r="I18" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -8975,22 +9105,22 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -9001,20 +9131,20 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -9025,18 +9155,18 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -9047,18 +9177,18 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="21" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -9069,18 +9199,18 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="21" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -9096,11 +9226,11 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -9111,14 +9241,14 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -9131,14 +9261,14 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -9156,7 +9286,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -9169,14 +9299,14 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -9189,14 +9319,14 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -9209,14 +9339,14 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -9234,7 +9364,7 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -9247,64 +9377,64 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="8:13">
       <c r="H33" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="8:13">
       <c r="H34" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="8:13">
       <c r="H35" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="8:13">
       <c r="H36" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="21" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="8:13">
@@ -9314,79 +9444,79 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="8:13">
       <c r="H38" s="18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="21" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="21" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="8:13">
@@ -9396,115 +9526,115 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="8:13">
       <c r="H49" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="8:13">
       <c r="H50" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="8:13">
       <c r="H51" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="8:13">
       <c r="H52" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="8:13">
       <c r="H53" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="8:13">
@@ -9514,127 +9644,127 @@
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="8:13">
       <c r="H55" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="56" spans="8:13">
       <c r="H56" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="57" spans="8:13">
       <c r="H57" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="8:13">
       <c r="H58" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="8:13">
       <c r="H59" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="8:13">
       <c r="H60" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="8:13">
       <c r="H61" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="8:13">
       <c r="H62" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="8:13">
       <c r="H63" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="8:13">
       <c r="H64" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="8:13">
@@ -9644,67 +9774,67 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="8:13">
       <c r="H66" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="8:13">
       <c r="H67" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="8:13">
       <c r="H68" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="8:13">
       <c r="H69" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="70" spans="8:13">
       <c r="H70" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="8:13">
@@ -9717,7 +9847,7 @@
     </row>
     <row r="72" spans="8:13">
       <c r="H72" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -9727,7 +9857,7 @@
     </row>
     <row r="73" spans="8:13">
       <c r="H73" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
@@ -9737,7 +9867,7 @@
     </row>
     <row r="74" spans="8:13">
       <c r="H74" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -9747,7 +9877,7 @@
     </row>
     <row r="75" spans="8:13">
       <c r="H75" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -9757,7 +9887,7 @@
     </row>
     <row r="76" spans="8:13">
       <c r="H76" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -9767,7 +9897,7 @@
     </row>
     <row r="77" spans="8:13">
       <c r="H77" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -9785,7 +9915,7 @@
     </row>
     <row r="79" spans="8:13">
       <c r="H79" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -9795,7 +9925,7 @@
     </row>
     <row r="80" spans="8:13">
       <c r="H80" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -9805,17 +9935,17 @@
     </row>
     <row r="81" spans="8:8">
       <c r="H81" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="8:8">
@@ -9823,27 +9953,27 @@
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="8:8">
@@ -9851,52 +9981,52 @@
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="8:8">
@@ -9904,52 +10034,52 @@
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="8:8">
       <c r="H110" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="8:8">
       <c r="H111" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="8:8">
@@ -9957,32 +10087,32 @@
     </row>
     <row r="113" spans="8:8">
       <c r="H113" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="8:8">
       <c r="H114" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="8:8">
       <c r="H115" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="8:8">
       <c r="H116" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="8:8">
       <c r="H117" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="8:8">
       <c r="H118" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="8:8">
@@ -9990,32 +10120,32 @@
     </row>
     <row r="120" spans="8:8">
       <c r="H120" s="18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="121" spans="8:8">
       <c r="H121" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="8:8">
       <c r="H122" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="8:8">
       <c r="H123" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="8:8">
       <c r="H124" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="8:8">
       <c r="H125" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="8:8">
@@ -10023,27 +10153,27 @@
     </row>
     <row r="127" spans="8:8">
       <c r="H127" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128" spans="8:8">
       <c r="H128" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="8:8">
       <c r="H129" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="8:8">
       <c r="H130" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="8:8">
       <c r="H131" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="8:8">
@@ -10051,52 +10181,52 @@
     </row>
     <row r="133" spans="8:8">
       <c r="H133" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="8:8">
       <c r="H135" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="8:8">
       <c r="H136" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="8:8">
       <c r="H137" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="8:8">
       <c r="H138" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="8:8">
       <c r="H139" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="8:8">
       <c r="H140" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="8:8">
       <c r="H141" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="8:8">
       <c r="H142" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="8:8">
@@ -10104,47 +10234,47 @@
     </row>
     <row r="144" spans="8:8">
       <c r="H144" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="145" spans="8:8">
       <c r="H145" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="146" spans="8:8">
       <c r="H146" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="8:8">
       <c r="H147" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="8:8">
       <c r="H148" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="8:8">
       <c r="H149" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="150" spans="8:8">
       <c r="H150" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="151" spans="8:8">
       <c r="H151" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="152" spans="8:8">
       <c r="H152" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="153" spans="8:8">
@@ -10152,32 +10282,32 @@
     </row>
     <row r="154" spans="8:8">
       <c r="H154" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="155" spans="8:8">
       <c r="H155" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="8:8">
       <c r="H156" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="8:8">
       <c r="H157" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="8:8">
       <c r="H158" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="8:8">
       <c r="H159" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="8:8">
@@ -10185,27 +10315,27 @@
     </row>
     <row r="161" spans="8:8">
       <c r="H161" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="8:8">
       <c r="H163" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="8:8">
       <c r="H164" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="8:8">
       <c r="H165" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="8:8">
@@ -10213,37 +10343,37 @@
     </row>
     <row r="167" spans="8:8">
       <c r="H167" s="18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="168" spans="8:8">
       <c r="H168" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="8:8">
       <c r="H169" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="8:8">
       <c r="H170" s="18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="8:8">
       <c r="H173" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="8:8">
@@ -10251,32 +10381,32 @@
     </row>
     <row r="175" spans="8:8">
       <c r="H175" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="8:8">
       <c r="H176" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="8:8">
       <c r="H177" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178" spans="8:8">
       <c r="H178" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="8:8">
       <c r="H179" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="180" spans="8:8">
       <c r="H180" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="181" spans="8:8">
@@ -10284,27 +10414,27 @@
     </row>
     <row r="182" spans="8:8">
       <c r="H182" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="183" spans="8:8">
       <c r="H183" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="184" spans="8:8">
       <c r="H184" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="8:8">
       <c r="H185" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="8:8">
       <c r="H186" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="8:8">
@@ -10312,32 +10442,32 @@
     </row>
     <row r="188" spans="8:8">
       <c r="H188" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="8:8">
       <c r="H189" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="8:8">
       <c r="H190" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="8:8">
       <c r="H191" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="192" spans="8:8">
       <c r="H192" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="8:8">
       <c r="H193" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="8:8">
@@ -10345,27 +10475,27 @@
     </row>
     <row r="195" spans="8:8">
       <c r="H195" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="196" spans="8:8">
       <c r="H196" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="197" spans="8:8">
       <c r="H197" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="8:8">
       <c r="H198" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" spans="8:8">
       <c r="H199" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="8:8">
@@ -10373,22 +10503,22 @@
     </row>
     <row r="201" spans="8:8">
       <c r="H201" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="202" spans="8:8">
       <c r="H202" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="203" spans="8:8">
       <c r="H203" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="8:8">
       <c r="H204" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="8:8">
@@ -10396,42 +10526,42 @@
     </row>
     <row r="206" spans="8:8">
       <c r="H206" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="207" spans="8:8">
       <c r="H207" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="208" spans="8:8">
       <c r="H208" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="8:8">
       <c r="H212" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="213" spans="8:8">
       <c r="H213" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="214" spans="8:8">
@@ -10439,27 +10569,27 @@
     </row>
     <row r="215" spans="8:8">
       <c r="H215" s="18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="8:8">
       <c r="H216" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="8:8">
       <c r="H217" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="8:8">
       <c r="H218" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="8:8">
       <c r="H219" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="8:8">
@@ -10467,22 +10597,22 @@
     </row>
     <row r="221" spans="8:8">
       <c r="H221" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="222" spans="8:8">
       <c r="H222" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="8:8">
       <c r="H223" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="224" spans="8:8">
       <c r="H224" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="8:8">
@@ -10490,22 +10620,22 @@
     </row>
     <row r="226" spans="8:8">
       <c r="H226" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="227" spans="8:8">
       <c r="H227" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="8:8">
       <c r="H228" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="8:8">
       <c r="H229" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="8:8">
@@ -10513,22 +10643,22 @@
     </row>
     <row r="231" spans="8:8">
       <c r="H231" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="8:8">
       <c r="H232" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233" spans="8:8">
       <c r="H233" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="8:8">
       <c r="H234" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -10561,7 +10691,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAEF0A-EEEE-4C77-BCFE-059D2878CD58}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10576,7 +10706,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25">
       <c r="A1" s="8" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="26.25">
@@ -10584,112 +10714,147 @@
     </row>
     <row r="3" spans="1:1" ht="18.75">
       <c r="A3" s="11" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="12" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="13" customFormat="1" ht="37.5">
       <c r="A5" s="12" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A6" s="10" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A7" s="12" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A8" s="12" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="12" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="56.25">
       <c r="A10" s="12" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="37.5">
       <c r="A11" s="12" t="s">
-        <v>907</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="37.5">
       <c r="A12" s="12" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A13" s="12" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="1" customFormat="1" ht="37.5">
       <c r="A14" s="12" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A15" s="12" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A16" s="12" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A17" s="12" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75">
-      <c r="A18" s="10" t="s">
-        <v>901</v>
+      <c r="A18" s="12" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75">
-      <c r="A19" s="12" t="s">
-        <v>910</v>
+      <c r="A19" s="10" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75">
       <c r="A20" s="12" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="37.5">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75">
       <c r="A21" s="12" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="56.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75">
       <c r="A22" s="12" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="37.5">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75">
       <c r="A23" s="12" t="s">
-        <v>913</v>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="75">
+      <c r="A24" s="12" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75">
-      <c r="A25" s="9" t="s">
-        <v>903</v>
+      <c r="A25" s="10" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75">
+      <c r="A26" s="12" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75">
+      <c r="A27" s="12" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="37.5">
+      <c r="A28" s="12" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="56.25">
+      <c r="A29" s="12" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="37.5">
+      <c r="A30" s="12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75">
+      <c r="A32" s="9" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_metadata_submission/Sample_submission_sheet.xlsx
+++ b/Sample_metadata_submission/Sample_submission_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v3.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/AM_metadata_master_sheets/git/v3.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{5894C753-3ACE-4B56-A287-D56F3699727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9443284-E767-4CCC-BA5E-39ED449D8793}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{5894C753-3ACE-4B56-A287-D56F3699727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B45DCF-0DDB-433B-AA46-922F670C3DC0}"/>
   <bookViews>
-    <workbookView xWindow="-36030" yWindow="2265" windowWidth="28770" windowHeight="12690" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
+    <workbookView xWindow="-32280" yWindow="-3090" windowWidth="25335" windowHeight="17355" activeTab="7" xr2:uid="{D6E654E1-E909-4FDA-A102-79B1093763C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Pelagic Water" sheetId="5" r:id="rId5"/>
     <sheet name="Host" sheetId="6" r:id="rId6"/>
     <sheet name="Controlled Vocab" sheetId="7" r:id="rId7"/>
-    <sheet name="README_v3.0.0" sheetId="8" r:id="rId8"/>
+    <sheet name="README_v3.1.0" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="954">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -4974,13 +4974,19 @@
     <t>3d) If you wish to convert your own CSBP sheets for submission, a python script to convert the CSBP sheet into AM format is available at:
 https://github.com/AusMicrobiome/misc_tools/blob/master/convert_CSBP_to_AM.py
 The output filename from script will mirror the input CSBP filename but will terminate in the suffix `AM_&lt;SAMPLE_TYPE&gt;_format_UPDATE.xlsx`. Prior to submission ensure the filename contains submitter identifiable information as in 4d) below and retains the suffix. The output from this script can be submitted directly to the AM.</t>
+  </si>
+  <si>
+    <t>Part_org_carb_(μmol/L)</t>
+  </si>
+  <si>
+    <t>Part_org_carb_method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5136,6 +5142,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5185,7 +5197,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5283,6 +5295,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6904,7 +6919,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F0001-D48A-4857-9E2D-BD435BB0F0C1}">
-  <dimension ref="A1:FW1"/>
+  <dimension ref="A1:FY1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6919,7 +6934,7 @@
     <col min="173" max="173" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:179" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:181" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7304,157 +7319,163 @@
       <c r="DX1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DY1" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="DZ1" s="40" t="s">
+        <v>953</v>
+      </c>
+      <c r="EA1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="EK1" s="32" t="s">
+      <c r="EM1" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="EL1" s="32" t="s">
+      <c r="EN1" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="EQ1" s="32" t="s">
+      <c r="ES1" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="ER1" s="32" t="s">
+      <c r="ET1" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="FE1" s="32" t="s">
+      <c r="FG1" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="FF1" s="32" t="s">
+      <c r="FH1" s="32" t="s">
         <v>931</v>
       </c>
-      <c r="FG1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FK1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FL1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FK1" s="4" t="s">
+      <c r="FM1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="FL1" s="4" t="s">
+      <c r="FN1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="FM1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FN1" s="4" t="s">
+      <c r="FP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="FO1" s="4" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="FP1" s="4" t="s">
+      <c r="FR1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="FQ1" s="4" t="s">
+      <c r="FS1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="FR1" s="4" t="s">
+      <c r="FT1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="FS1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="FT1" s="4" t="s">
+      <c r="FV1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="FU1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="FV1" s="4" t="s">
+      <c r="FX1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="FW1" s="4" t="s">
+      <c r="FY1" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7466,7 +7487,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227E32B-D456-4E9A-8E84-D14AE0D89898}">
-  <dimension ref="A1:GC1"/>
+  <dimension ref="A1:GE1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7481,7 +7502,7 @@
     <col min="179" max="179" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" s="4" customFormat="1" ht="289.5">
+    <row r="1" spans="1:187" s="4" customFormat="1" ht="289.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7884,157 +7905,163 @@
       <c r="ED1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EE1" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="EF1" s="40" t="s">
+        <v>953</v>
+      </c>
+      <c r="EG1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="EQ1" s="32" t="s">
+      <c r="ES1" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="ER1" s="32" t="s">
+      <c r="ET1" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="EW1" s="32" t="s">
+      <c r="EY1" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="EX1" s="32" t="s">
+      <c r="EZ1" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="FE1" s="4" t="s">
+      <c r="FG1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="FF1" s="4" t="s">
+      <c r="FH1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="FG1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FK1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FL1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="FK1" s="32" t="s">
+      <c r="FM1" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="FL1" s="32" t="s">
+      <c r="FN1" s="32" t="s">
         <v>931</v>
       </c>
-      <c r="FM1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="FN1" s="4" t="s">
+      <c r="FP1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="FO1" s="4" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FP1" s="4" t="s">
+      <c r="FR1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FQ1" s="4" t="s">
+      <c r="FS1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="FR1" s="4" t="s">
+      <c r="FT1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="FS1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="4" t="s">
+      <c r="FV1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="FU1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="FV1" s="4" t="s">
+      <c r="FX1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="FW1" s="4" t="s">
+      <c r="FY1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="FX1" s="4" t="s">
+      <c r="FZ1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="FY1" s="4" t="s">
+      <c r="GA1" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="FZ1" s="4" t="s">
+      <c r="GB1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="GA1" s="4" t="s">
+      <c r="GC1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="GB1" s="4" t="s">
+      <c r="GD1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="GC1" s="4" t="s">
+      <c r="GE1" s="4" t="s">
         <v>130</v>
       </c>
     </row>
